--- a/UnusedNamesProf.xlsx
+++ b/UnusedNamesProf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hassl\OneDrive - Lund University\Biofinder\fMRI-tasks\FacesNamesProfessions_fMRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A535D3B-BDB1-4D0C-923E-FA2DF216D302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330249D6-80F9-4CB3-A9C4-0179BE457637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="11890" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -237,9 +237,6 @@
     <t>Lucas</t>
   </si>
   <si>
-    <t>Adam</t>
-  </si>
-  <si>
     <t>Jonathan</t>
   </si>
   <si>
@@ -391,6 +388,9 @@
   </si>
   <si>
     <t>Naprapat</t>
+  </si>
+  <si>
+    <t>Bertil</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1027,7 @@
   <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,11 +1087,11 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H16" si="0">LEFT(G2,1)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>17</v>
@@ -1128,7 +1128,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -1140,7 +1140,7 @@
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="0"/>
@@ -1165,7 +1165,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -1177,7 +1177,7 @@
         <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -1202,7 +1202,7 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -1248,7 +1248,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -1273,7 +1273,7 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -1310,7 +1310,7 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -1322,7 +1322,7 @@
         <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -1347,7 +1347,7 @@
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -1359,7 +1359,7 @@
         <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -1430,7 +1430,7 @@
         <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -1464,7 +1464,7 @@
         <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -1489,7 +1489,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -1501,7 +1501,7 @@
         <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -1526,7 +1526,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
         <v>39</v>
@@ -1538,7 +1538,7 @@
         <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -1563,7 +1563,7 @@
         <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
         <v>39</v>
@@ -1637,7 +1637,7 @@
         <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1649,7 +1649,7 @@
         <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H17" t="s">
         <v>43</v>
@@ -1673,7 +1673,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -1710,7 +1710,7 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
         <v>43</v>
@@ -1747,7 +1747,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
         <v>43</v>
@@ -1759,7 +1759,7 @@
         <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="1"/>
@@ -1793,7 +1793,7 @@
         <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="1"/>
@@ -1818,7 +1818,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>14</v>
@@ -1830,7 +1830,7 @@
         <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="1"/>
@@ -1855,7 +1855,7 @@
         <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -1867,7 +1867,7 @@
         <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="1"/>
@@ -1892,7 +1892,7 @@
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -1904,7 +1904,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="1"/>
@@ -1929,7 +1929,7 @@
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
@@ -1966,7 +1966,7 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
@@ -1978,7 +1978,7 @@
         <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="1"/>
@@ -2015,7 +2015,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="1"/>
@@ -2074,7 +2074,7 @@
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
         <v>46</v>
@@ -2086,7 +2086,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="1"/>
@@ -2123,7 +2123,7 @@
         <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="1"/>
@@ -2157,7 +2157,7 @@
         <v>46</v>
       </c>
       <c r="G31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="1"/>
@@ -2182,7 +2182,7 @@
         <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
         <v>46</v>
@@ -2194,7 +2194,7 @@
         <v>23</v>
       </c>
       <c r="G32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="1"/>
@@ -2219,7 +2219,7 @@
         <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
         <v>46</v>
@@ -2231,7 +2231,7 @@
         <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="1"/>
@@ -2256,7 +2256,7 @@
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
         <v>46</v>
@@ -2293,7 +2293,7 @@
         <v>27</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
         <v>46</v>
@@ -2330,7 +2330,7 @@
         <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
         <v>46</v>
@@ -2342,7 +2342,7 @@
         <v>23</v>
       </c>
       <c r="G36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="1"/>
@@ -2404,7 +2404,7 @@
         <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
         <v>46</v>
@@ -2441,7 +2441,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D39" t="s">
         <v>46</v>
@@ -2478,7 +2478,7 @@
         <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -2515,7 +2515,7 @@
         <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
@@ -2527,7 +2527,7 @@
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="1"/>
